--- a/medicine/Sexualité et sexologie/La_Fièvre_au_corps/La_Fièvre_au_corps.xlsx
+++ b/medicine/Sexualité et sexologie/La_Fièvre_au_corps/La_Fièvre_au_corps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fièvre au corps (Body Heat) est un thriller érotique américain réalisé par Lawrence Kasdan, sorti en 1981. Premier long métrage du réalisateur, il met en vedette William Hurt et Kathleen Turner. Il est souvent considéré comme un hommage au film noir en particulier grâce à la présence et à l'importance d'une femme fatale dans le récit.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ned Racine est un avocat incompétent et assez miteux de Floride. Un soir, il rencontre Matty Walker, une femme splendide mariée à un homme riche. Il ne peut s'empêcher de la draguer. Elle succombe assez vite à ses avances. Dans les jours qui suivent, l'amour dévorant qui les unit prend de plus en plus d'envergure. Ils conviennent de tuer le mari encombrant, Edmund, notamment pour récupérer une partie de sa fortune. Au lendemain du crime, ce sont deux très bons amis de Ned, un flic et un procureur, qui mènent l'enquête. Bientôt, ils commencent à suivre la piste du couple.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : La Fièvre au corps
@@ -563,7 +579,7 @@
 Budget : 9 millions de dollars
 Langue : anglais
 Format : 1,85:1
-Genre : Néo-noir[1], thriller érotique
+Genre : Néo-noir, thriller érotique
 Durée : 113 minutes
 Dates de sortie :
  États-Unis : 28 août 1981
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,9 +611,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>William Hurt (VF : Richard Darbois) : Ned Racine
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Hurt (VF : Richard Darbois) : Ned Racine
 Kathleen Turner (VF : Yolande Folliot) : Matty Walker
 Richard Crenna (VF : Marc Cassot) : Edmund Walker
 Ted Danson (VF : Jean Roche) : Peter Lowenstein
@@ -610,7 +628,7 @@
 Thom Sharp (VF : Serge Lhorca) : Michael Glenn
 Larry Marko (VF : Marc de Georgi) : le juge Costanza
 Meg Kasdan : une infirmière
-Deborah Lucchesi : Beverly, la secrétaire de Ned [2]</t>
+Deborah Lucchesi : Beverly, la secrétaire de Ned </t>
         </is>
       </c>
     </row>
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,12 +658,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Avec ce film Lawrence Kasdan veut notamment rendre hommage au film noir, notamment à Assurance sur la mort (1944, Billy Wilder)[3], Quand la ville dort (1950, John Huston) et La Griffe du passé (1947, Jacques Tourneur). Ainsi, le personnage de Matty Walker s'inspire de Lauren Bacall[4].
-Le rôle de Ned Racine est proposé à Christopher Reeve, qui le refuse. Jeff Goldblum est quant à lui envisagé pour incarner Peter Lowenstein. Le film marque les débuts à l'écran de l'actrice Kathleen Turner[4].
-Sylvia Kristel a auditionné pour le rôle de Matty Walker[4].
-Tournage
-Le tournage devait initialement avoir lieu à New York et ses environs. En raison d'une grève de l'International Brotherhood of Teamsters[4], il se déroule finalement en Floride (Lake Worth, Palm Beach, Hollywood, Delray Beach, Hypoluxo) ainsi qu'à Hawaï (Kauai)[5].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec ce film Lawrence Kasdan veut notamment rendre hommage au film noir, notamment à Assurance sur la mort (1944, Billy Wilder), Quand la ville dort (1950, John Huston) et La Griffe du passé (1947, Jacques Tourneur). Ainsi, le personnage de Matty Walker s'inspire de Lauren Bacall.
+Le rôle de Ned Racine est proposé à Christopher Reeve, qui le refuse. Jeff Goldblum est quant à lui envisagé pour incarner Peter Lowenstein. Le film marque les débuts à l'écran de l'actrice Kathleen Turner.
+Sylvia Kristel a auditionné pour le rôle de Matty Walker.
 </t>
         </is>
       </c>
@@ -656,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_au_corps</t>
+          <t>La_Fièvre_au_corps</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,15 +692,92 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage devait initialement avoir lieu à New York et ses environs. En raison d'une grève de l'International Brotherhood of Teamsters, il se déroule finalement en Floride (Lake Worth, Palm Beach, Hollywood, Delray Beach, Hypoluxo) ainsi qu'à Hawaï (Kauai).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Fièvre_au_corps</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fi%C3%A8vre_au_corps</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Roger Ebert inclut La Fièvre au corps dans son top 10 des films sortis en 1981. Le film figure par ailleurs dans l'ouvrage 1001 films à voir avant de mourir[4].
-Box-office
-Avec un budget de 9 millions de dollars[6], le film a rapporté $24,058,838[7].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Ebert inclut La Fièvre au corps dans son top 10 des films sortis en 1981. Le film figure par ailleurs dans l'ouvrage 1001 films à voir avant de mourir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Fièvre_au_corps</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fi%C3%A8vre_au_corps</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un budget de 9 millions de dollars, le film a rapporté $24,058,838.
 </t>
         </is>
       </c>
